--- a/tests/analysis/clusters_annotation_tables/amiodarone_24_hr_extracellexclude_cluster2_table.xlsx
+++ b/tests/analysis/clusters_annotation_tables/amiodarone_24_hr_extracellexclude_cluster2_table.xlsx
@@ -130,12 +130,12 @@
     <t>2-(Formamido)-N1-(5-phosphoribosyl)acetamidine cyclo-ligase (ADP-forming) Purine metabolism EC:6.3.3.1</t>
   </si>
   <si>
+    <t>UP</t>
+  </si>
+  <si>
     <t>DOWN</t>
   </si>
   <si>
-    <t>UP</t>
-  </si>
-  <si>
     <t xml:space="preserve">aldehydo-N-acetyl-D-glucosamine --&gt; aldehydo-N-acetyl-D-glucosamine </t>
   </si>
   <si>
@@ -202,7 +202,7 @@
     <t>['LPO']</t>
   </si>
   <si>
-    <t>['ALDH1A3', 'ALDH3B1', 'ALDH3B2', 'ALDH3A1']</t>
+    <t>['ALDH1A3', 'ALDH3A1', 'ALDH3B2', 'ALDH3B1']</t>
   </si>
   <si>
     <t>Transport, lysosomal</t>
@@ -262,13 +262,13 @@
     <t>https://www.genecards.org/cgi-bin/carddisp.pl?gene=GNPDA1</t>
   </si>
   <si>
+    <t>https://www.genecards.org/cgi-bin/carddisp.pl?gene=ALDH3A1</t>
+  </si>
+  <si>
+    <t>https://www.genecards.org/cgi-bin/carddisp.pl?gene=ALDH3B2</t>
+  </si>
+  <si>
     <t>https://www.genecards.org/cgi-bin/carddisp.pl?gene=ALDH3B1</t>
-  </si>
-  <si>
-    <t>https://www.genecards.org/cgi-bin/carddisp.pl?gene=ALDH3B2</t>
-  </si>
-  <si>
-    <t>https://www.genecards.org/cgi-bin/carddisp.pl?gene=ALDH3A1</t>
   </si>
 </sst>
 </file>
